--- a/output/5Y_P20_KFSDIV.xlsx
+++ b/output/5Y_P20_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.701</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-29</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8109</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-28</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.9322</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-27</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5846</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-26</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2867</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.0645</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-24</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8083</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-23</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5636</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-22</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.1788</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-21</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.5668</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.962</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-19</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2659</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.4103</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.3976</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.9013</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.3527</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8804</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-13</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6268</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-12</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3636</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-11</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8711</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1252</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1934</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-8</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1176</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-7</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3311</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3637</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6447</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.486</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.1958</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-2</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.4264</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>17.107</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.8894</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4004</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3877</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6367</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.0061</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.835</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.4216</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.2404</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.382</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>11.9583</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.2036</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.9136</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.4338</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.9657</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3568</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.2487</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3991</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.5985</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.6955</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3398</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.8469</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.129</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.716</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.4613</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.6545</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.2345</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.1636</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.8145</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.2352</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.8241</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.2543</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.701</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-29</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8109</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-28</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.9322</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-27</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5846</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-26</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2867</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.0645</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-24</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8083</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-23</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5636</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-22</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.1788</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-21</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.5668</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.962</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-19</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2659</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.4103</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.3976</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.9013</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.3527</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8804</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-13</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6268</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-12</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3636</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-11</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8711</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1252</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1934</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-8</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1176</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-7</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3311</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3637</v>
@@ -5674,10 +5677,10 @@
         <v>301660.8589</v>
       </c>
       <c r="K26" s="1">
-        <v>208778.8636</v>
+        <v>208818.0654</v>
       </c>
       <c r="L26" s="1">
-        <v>13.31</v>
+        <v>13.3125</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6447</v>
@@ -5727,10 +5730,10 @@
         <v>299922.5461</v>
       </c>
       <c r="K27" s="1">
-        <v>218305.563</v>
+        <v>218344.7647</v>
       </c>
       <c r="L27" s="1">
-        <v>13.3891</v>
+        <v>13.3915</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.486</v>
@@ -5780,10 +5783,10 @@
         <v>339445.798</v>
       </c>
       <c r="K28" s="1">
-        <v>240092.8238</v>
+        <v>240132.0256</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4964</v>
+        <v>13.4986</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.1958</v>
@@ -5833,10 +5836,10 @@
         <v>361821.5987</v>
       </c>
       <c r="K29" s="1">
-        <v>235136.9959</v>
+        <v>235195.9992</v>
       </c>
       <c r="L29" s="1">
-        <v>13.4594</v>
+        <v>13.4628</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-2</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.4264</v>
@@ -5886,10 +5889,10 @@
         <v>375809.3735</v>
       </c>
       <c r="K30" s="1">
-        <v>232751.6704</v>
+        <v>232820.1985</v>
       </c>
       <c r="L30" s="1">
-        <v>13.4359</v>
+        <v>13.4399</v>
       </c>
       <c r="M30" s="1">
         <v>0.75</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>17.107</v>
@@ -5939,10 +5942,10 @@
         <v>409493.2956</v>
       </c>
       <c r="K31" s="1">
-        <v>238787.9905</v>
+        <v>238856.5186</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4986</v>
+        <v>13.5025</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.8894</v>
@@ -5992,10 +5995,10 @@
         <v>415676.6985</v>
       </c>
       <c r="K32" s="1">
-        <v>236764.9735</v>
+        <v>236841.5859</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4741</v>
+        <v>13.4785</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4004</v>
@@ -6045,10 +6048,10 @@
         <v>432460.8569</v>
       </c>
       <c r="K33" s="1">
-        <v>250636.9826</v>
+        <v>250713.5951</v>
       </c>
       <c r="L33" s="1">
-        <v>13.6279</v>
+        <v>13.632</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3877</v>
@@ -6098,10 +6101,10 @@
         <v>422624.6768</v>
       </c>
       <c r="K34" s="1">
-        <v>269688.2078</v>
+        <v>269764.8202</v>
       </c>
       <c r="L34" s="1">
-        <v>13.7942</v>
+        <v>13.7981</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6367</v>
@@ -6151,10 +6154,10 @@
         <v>416399.513</v>
       </c>
       <c r="K35" s="1">
-        <v>299567.5956</v>
+        <v>299644.208</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9407</v>
+        <v>13.9443</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.0061</v>
@@ -6204,10 +6207,10 @@
         <v>388417.9558</v>
       </c>
       <c r="K36" s="1">
-        <v>325778.1129</v>
+        <v>325854.7253</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9964</v>
+        <v>13.9997</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.835</v>
@@ -6257,10 +6260,10 @@
         <v>431004.8422</v>
       </c>
       <c r="K37" s="1">
-        <v>373847.1122</v>
+        <v>373923.7246</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8645</v>
+        <v>13.8673</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.4216</v>
@@ -6310,10 +6313,10 @@
         <v>456270.6798</v>
       </c>
       <c r="K38" s="1">
-        <v>361492.8274</v>
+        <v>361618.8117</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8646</v>
+        <v>13.8694</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.2404</v>
@@ -6363,10 +6366,10 @@
         <v>435964.3461</v>
       </c>
       <c r="K39" s="1">
-        <v>356205.8793</v>
+        <v>356352.9741</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8562</v>
+        <v>13.8619</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.382</v>
@@ -6416,10 +6419,10 @@
         <v>430420.675</v>
       </c>
       <c r="K40" s="1">
-        <v>396673.8789</v>
+        <v>396820.9736</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7937</v>
+        <v>13.7988</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>11.9583</v>
@@ -6469,10 +6472,10 @@
         <v>426937.849</v>
       </c>
       <c r="K41" s="1">
-        <v>431449.5379</v>
+        <v>431596.6326</v>
       </c>
       <c r="L41" s="1">
-        <v>13.6705</v>
+        <v>13.6752</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.2036</v>
@@ -6522,10 +6525,10 @@
         <v>445049.0094</v>
       </c>
       <c r="K42" s="1">
-        <v>454887.0303</v>
+        <v>455034.1251</v>
       </c>
       <c r="L42" s="1">
-        <v>13.572</v>
+        <v>13.5764</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.9136</v>
@@ -6575,10 +6578,10 @@
         <v>490962.0385</v>
       </c>
       <c r="K43" s="1">
-        <v>456689.3847</v>
+        <v>456836.4794</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5661</v>
+        <v>13.5705</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.4338</v>
@@ -6628,10 +6631,10 @@
         <v>517878.9677</v>
       </c>
       <c r="K44" s="1">
-        <v>442779.5315</v>
+        <v>442982.2033</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5868</v>
+        <v>13.593</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.9657</v>
@@ -6681,10 +6684,10 @@
         <v>512897.6521</v>
       </c>
       <c r="K45" s="1">
-        <v>435834.8456</v>
+        <v>436065.2741</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5888</v>
+        <v>13.596</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3568</v>
@@ -6734,10 +6737,10 @@
         <v>544728.7866</v>
       </c>
       <c r="K46" s="1">
-        <v>460916.3583</v>
+        <v>461146.7868</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5549</v>
+        <v>13.5617</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.2487</v>
@@ -6787,10 +6790,10 @@
         <v>551086.2783</v>
       </c>
       <c r="K47" s="1">
-        <v>457631.6162</v>
+        <v>457875.1752</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5562</v>
+        <v>13.5634</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3991</v>
@@ -6840,10 +6843,10 @@
         <v>566253.5686999999</v>
       </c>
       <c r="K48" s="1">
-        <v>471328.8093</v>
+        <v>471572.3683</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5478</v>
+        <v>13.5548</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.5985</v>
@@ -6893,10 +6896,10 @@
         <v>595753.1169</v>
       </c>
       <c r="K49" s="1">
-        <v>476125.9858</v>
+        <v>476369.5448</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5466</v>
+        <v>13.5535</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.6955</v>
@@ -6946,10 +6949,10 @@
         <v>609164.7643</v>
       </c>
       <c r="K50" s="1">
-        <v>479143.7248</v>
+        <v>479387.2838</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5471</v>
+        <v>13.554</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3398</v>
@@ -6999,10 +7002,10 @@
         <v>606411.6837000001</v>
       </c>
       <c r="K51" s="1">
-        <v>485746.3959</v>
+        <v>485989.9549</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5494</v>
+        <v>13.5562</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.8469</v>
@@ -7052,10 +7055,10 @@
         <v>607525.7128</v>
       </c>
       <c r="K52" s="1">
-        <v>508564.2687</v>
+        <v>508807.8277</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5411</v>
+        <v>13.5476</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.129</v>
@@ -7105,10 +7108,10 @@
         <v>628609.0296</v>
       </c>
       <c r="K53" s="1">
-        <v>537152.7064</v>
+        <v>537396.2654</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5038</v>
+        <v>13.5099</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.716</v>
@@ -7158,10 +7161,10 @@
         <v>622254.2325</v>
       </c>
       <c r="K54" s="1">
-        <v>535950.4294</v>
+        <v>536198.7956</v>
       </c>
       <c r="L54" s="1">
-        <v>13.5046</v>
+        <v>13.5109</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.4613</v>
@@ -7211,10 +7214,10 @@
         <v>632247.6722</v>
       </c>
       <c r="K55" s="1">
-        <v>562410.9314999999</v>
+        <v>562659.2977</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4667</v>
+        <v>13.4726</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.6545</v>
@@ -7264,10 +7267,10 @@
         <v>650536.5059</v>
       </c>
       <c r="K56" s="1">
-        <v>583109.8564</v>
+        <v>583358.2225</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4292</v>
+        <v>13.435</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.2345</v>
@@ -7317,10 +7320,10 @@
         <v>642273.8636</v>
       </c>
       <c r="K57" s="1">
-        <v>584744.8393</v>
+        <v>584993.2055</v>
       </c>
       <c r="L57" s="1">
-        <v>13.427</v>
+        <v>13.4327</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.1636</v>
@@ -7370,10 +7373,10 @@
         <v>660676.3454</v>
       </c>
       <c r="K58" s="1">
-        <v>613114.3389</v>
+        <v>613362.7051</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3681</v>
+        <v>13.3735</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.8145</v>
@@ -7423,10 +7426,10 @@
         <v>654264.1211</v>
       </c>
       <c r="K59" s="1">
-        <v>626410.0531</v>
+        <v>626658.4192</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3407</v>
+        <v>13.346</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.2352</v>
@@ -7476,10 +7479,10 @@
         <v>635716.4458</v>
       </c>
       <c r="K60" s="1">
-        <v>652874.8925</v>
+        <v>653123.2587</v>
       </c>
       <c r="L60" s="1">
-        <v>13.2724</v>
+        <v>13.2774</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.8241</v>
@@ -7529,10 +7532,10 @@
         <v>637254.0585</v>
       </c>
       <c r="K61" s="1">
-        <v>691471.1058</v>
+        <v>691719.472</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1411</v>
+        <v>13.1458</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.2543</v>
@@ -7582,10 +7585,10 @@
         <v>670977.3991</v>
       </c>
       <c r="K62" s="1">
-        <v>723187.5575999999</v>
+        <v>723435.9238</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0203</v>
+        <v>13.0247</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.701</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-29</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8109</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-28</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.9322</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-27</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5846</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-26</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2867</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.0645</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-24</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8083</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-23</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5636</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-22</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.1788</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-21</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.5668</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.962</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-19</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2659</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.4103</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.3976</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.9013</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.3527</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8804</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-13</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6268</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-12</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3636</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-11</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8711</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1252</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1934</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-8</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1176</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-7</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3311</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3637</v>
@@ -8986,10 +8989,10 @@
         <v>303930.9881</v>
       </c>
       <c r="K26" s="1">
-        <v>221802.5881</v>
+        <v>221841.4318</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3441</v>
+        <v>13.3464</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6447</v>
@@ -9039,10 +9042,10 @@
         <v>301458.0156</v>
       </c>
       <c r="K27" s="1">
-        <v>232575.353</v>
+        <v>232614.1967</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4269</v>
+        <v>13.4292</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.486</v>
@@ -9092,10 +9095,10 @@
         <v>342860.1094</v>
       </c>
       <c r="K28" s="1">
-        <v>256428.5013</v>
+        <v>256467.345</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5339</v>
+        <v>13.536</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.1958</v>
@@ -9145,10 +9148,10 @@
         <v>366074.884</v>
       </c>
       <c r="K29" s="1">
-        <v>251886.985</v>
+        <v>251943.9749</v>
       </c>
       <c r="L29" s="1">
-        <v>13.5028</v>
+        <v>13.5059</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-2</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.4264</v>
@@ -9198,10 +9201,10 @@
         <v>380343.8713</v>
       </c>
       <c r="K30" s="1">
-        <v>250106.6198</v>
+        <v>250170.7188</v>
       </c>
       <c r="L30" s="1">
-        <v>13.4867</v>
+        <v>13.4902</v>
       </c>
       <c r="M30" s="1">
         <v>0.75</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>17.107</v>
@@ -9251,10 +9254,10 @@
         <v>415727.6482</v>
       </c>
       <c r="K31" s="1">
-        <v>257365.3329</v>
+        <v>257429.4319</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5557</v>
+        <v>13.5591</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.8894</v>
@@ -9304,10 +9307,10 @@
         <v>421620.9875</v>
       </c>
       <c r="K32" s="1">
-        <v>256021.0944</v>
+        <v>256090.5652</v>
       </c>
       <c r="L32" s="1">
-        <v>13.5409</v>
+        <v>13.5446</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4004</v>
@@ -9357,10 +9360,10 @@
         <v>438892.596</v>
       </c>
       <c r="K33" s="1">
-        <v>271804.8042</v>
+        <v>271874.275</v>
       </c>
       <c r="L33" s="1">
-        <v>13.6999</v>
+        <v>13.7034</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3877</v>
@@ -9410,10 +9413,10 @@
         <v>427436.0407</v>
       </c>
       <c r="K34" s="1">
-        <v>293244.4833</v>
+        <v>293313.9541</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8685</v>
+        <v>13.8718</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6367</v>
@@ -9463,10 +9466,10 @@
         <v>419839.8701</v>
       </c>
       <c r="K35" s="1">
-        <v>326478.5311</v>
+        <v>326548.0019</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0119</v>
+        <v>14.0149</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.0061</v>
@@ -9516,10 +9519,10 @@
         <v>388547.5364</v>
       </c>
       <c r="K36" s="1">
-        <v>355848.3595</v>
+        <v>355917.8303</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0637</v>
+        <v>14.0664</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.835</v>
@@ -9569,10 +9572,10 @@
         <v>434030.3073</v>
       </c>
       <c r="K37" s="1">
-        <v>409084.1965</v>
+        <v>409153.6673</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9203</v>
+        <v>13.9227</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.4216</v>
@@ -9622,10 +9625,10 @@
         <v>460710.8238</v>
       </c>
       <c r="K38" s="1">
-        <v>396632.2938</v>
+        <v>396751.5266</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9221</v>
+        <v>13.9263</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.2404</v>
@@ -9675,10 +9678,10 @@
         <v>437510.8204</v>
       </c>
       <c r="K39" s="1">
-        <v>391899.6856</v>
+        <v>392037.8154</v>
       </c>
       <c r="L39" s="1">
-        <v>13.916</v>
+        <v>13.9209</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.382</v>
@@ -9728,10 +9731,10 @@
         <v>430409.2395</v>
       </c>
       <c r="K40" s="1">
-        <v>437307.7291</v>
+        <v>437445.8589</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8456</v>
+        <v>13.85</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>11.9583</v>
@@ -9781,10 +9784,10 @@
         <v>425558.8389</v>
       </c>
       <c r="K41" s="1">
-        <v>476610.0704</v>
+        <v>476748.2002</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7145</v>
+        <v>13.7185</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.2036</v>
@@ -9834,10 +9837,10 @@
         <v>444408.1805</v>
       </c>
       <c r="K42" s="1">
-        <v>497420.92</v>
+        <v>497559.0498</v>
       </c>
       <c r="L42" s="1">
-        <v>13.632</v>
+        <v>13.6358</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.9136</v>
@@ -9887,10 +9890,10 @@
         <v>493908.9688</v>
       </c>
       <c r="K43" s="1">
-        <v>506846.849</v>
+        <v>506984.9788</v>
       </c>
       <c r="L43" s="1">
-        <v>13.603</v>
+        <v>13.6067</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.4338</v>
@@ -9940,10 +9943,10 @@
         <v>522681.3386</v>
       </c>
       <c r="K44" s="1">
-        <v>492656.7317</v>
+        <v>492851.5584</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6231</v>
+        <v>13.6285</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.9657</v>
@@ -9993,10 +9996,10 @@
         <v>516013.903</v>
       </c>
       <c r="K45" s="1">
-        <v>486188.8379</v>
+        <v>486409.5156</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6253</v>
+        <v>13.6315</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3568</v>
@@ -10046,10 +10049,10 @@
         <v>550335.2136</v>
       </c>
       <c r="K46" s="1">
-        <v>515364.806</v>
+        <v>515585.4837</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5878</v>
+        <v>13.5936</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.2487</v>
@@ -10099,10 +10102,10 @@
         <v>556261.7428</v>
       </c>
       <c r="K47" s="1">
-        <v>513005.806</v>
+        <v>513235.9136</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5887</v>
+        <v>13.5948</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3991</v>
@@ -10152,10 +10155,10 @@
         <v>572050.1895</v>
       </c>
       <c r="K48" s="1">
-        <v>529661.9832</v>
+        <v>529892.0909</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5787</v>
+        <v>13.5846</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.5985</v>
@@ -10205,10 +10208,10 @@
         <v>603928.191</v>
       </c>
       <c r="K49" s="1">
-        <v>536412.7786</v>
+        <v>536642.8861999999</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5767</v>
+        <v>13.5825</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.6955</v>
@@ -10258,10 +10261,10 @@
         <v>617767.6692</v>
       </c>
       <c r="K50" s="1">
-        <v>541211.1727999999</v>
+        <v>541441.2805</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5771</v>
+        <v>13.5829</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3398</v>
@@ -10311,10 +10314,10 @@
         <v>613351.4507</v>
       </c>
       <c r="K51" s="1">
-        <v>550092.8964</v>
+        <v>550323.0041</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5795</v>
+        <v>13.5852</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.8469</v>
@@ -10364,10 +10367,10 @@
         <v>613250.4482</v>
       </c>
       <c r="K52" s="1">
-        <v>577350.961</v>
+        <v>577581.0686999999</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5693</v>
+        <v>13.5747</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.129</v>
@@ -10417,10 +10420,10 @@
         <v>635833.7521</v>
       </c>
       <c r="K53" s="1">
-        <v>611248.1473</v>
+        <v>611478.2549000001</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5287</v>
+        <v>13.5338</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.716</v>
@@ -10470,10 +10473,10 @@
         <v>627208.0601</v>
       </c>
       <c r="K54" s="1">
-        <v>611426.6257</v>
+        <v>611656.7334</v>
       </c>
       <c r="L54" s="1">
-        <v>13.5285</v>
+        <v>13.5336</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.4613</v>
@@ -10523,10 +10526,10 @@
         <v>637162.7763</v>
       </c>
       <c r="K55" s="1">
-        <v>643139.1917</v>
+        <v>643369.2993</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4875</v>
+        <v>13.4923</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.6545</v>
@@ -10576,10 +10579,10 @@
         <v>656645.2426999999</v>
       </c>
       <c r="K56" s="1">
-        <v>668387.1237</v>
+        <v>668617.2313</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4467</v>
+        <v>13.4514</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.2345</v>
@@ -10629,10 +10632,10 @@
         <v>645677.8752</v>
       </c>
       <c r="K57" s="1">
-        <v>671908.6724</v>
+        <v>672138.78</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4425</v>
+        <v>13.4471</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.1636</v>
@@ -10682,10 +10685,10 @@
         <v>665305.2923</v>
       </c>
       <c r="K58" s="1">
-        <v>706155.1331</v>
+        <v>706385.2407</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3798</v>
+        <v>13.3842</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.8145</v>
@@ -10735,10 +10738,10 @@
         <v>656363.0096</v>
       </c>
       <c r="K59" s="1">
-        <v>723176.5902</v>
+        <v>723406.6978</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3491</v>
+        <v>13.3534</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.2352</v>
@@ -10788,10 +10791,10 @@
         <v>633581.1483999999</v>
       </c>
       <c r="K60" s="1">
-        <v>750777.7607</v>
+        <v>751007.8684</v>
       </c>
       <c r="L60" s="1">
-        <v>13.2868</v>
+        <v>13.2908</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.8241</v>
@@ -10841,10 +10844,10 @@
         <v>635248.9684</v>
       </c>
       <c r="K61" s="1">
-        <v>760777.7607</v>
+        <v>761007.8684</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2554</v>
+        <v>13.2594</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.2543</v>
@@ -10894,10 +10897,10 @@
         <v>670792.807</v>
       </c>
       <c r="K62" s="1">
-        <v>786034.2922</v>
+        <v>786264.3998</v>
       </c>
       <c r="L62" s="1">
-        <v>13.1614</v>
+        <v>13.1653</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.701</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-29</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8109</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-28</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.9322</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-27</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5846</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-26</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2867</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.0645</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-24</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8083</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-23</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5636</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-22</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.1788</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-21</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.5668</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.962</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-19</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2659</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.4103</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.3976</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.9013</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.3527</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8804</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-13</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6268</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-12</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3636</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-11</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8711</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1252</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1934</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-8</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1176</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-7</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3311</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3637</v>
@@ -12298,10 +12301,10 @@
         <v>306102.0024</v>
       </c>
       <c r="K26" s="1">
-        <v>236072.2402</v>
+        <v>236110.4911</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3909</v>
+        <v>13.3931</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6447</v>
@@ -12351,10 +12354,10 @@
         <v>302835.2743</v>
       </c>
       <c r="K27" s="1">
-        <v>248243.4964</v>
+        <v>248281.7473</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4769</v>
+        <v>13.479</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.486</v>
@@ -12404,10 +12407,10 @@
         <v>346270.1182</v>
       </c>
       <c r="K28" s="1">
-        <v>274390.3374</v>
+        <v>274428.5883</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5825</v>
+        <v>13.5844</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.1958</v>
@@ -12457,10 +12460,10 @@
         <v>370397.2725</v>
       </c>
       <c r="K29" s="1">
-        <v>270365.4489</v>
+        <v>270419.7818</v>
       </c>
       <c r="L29" s="1">
-        <v>13.5574</v>
+        <v>13.5601</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-2</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.4264</v>
@@ -12510,10 +12513,10 @@
         <v>384973.1155</v>
       </c>
       <c r="K30" s="1">
-        <v>269316.1937</v>
+        <v>269374.7163</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5487</v>
+        <v>13.5516</v>
       </c>
       <c r="M30" s="1">
         <v>0.75</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>17.107</v>
@@ -12563,10 +12566,10 @@
         <v>422214.7021</v>
       </c>
       <c r="K31" s="1">
-        <v>277987.8748</v>
+        <v>278046.3974</v>
       </c>
       <c r="L31" s="1">
-        <v>13.6238</v>
+        <v>13.6267</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.8894</v>
@@ -12616,10 +12619,10 @@
         <v>427789.3715</v>
       </c>
       <c r="K32" s="1">
-        <v>277472.0885</v>
+        <v>277532.6722</v>
       </c>
       <c r="L32" s="1">
-        <v>13.6186</v>
+        <v>13.6216</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4004</v>
@@ -12669,10 +12672,10 @@
         <v>445593.4932</v>
       </c>
       <c r="K33" s="1">
-        <v>295447.7121</v>
+        <v>295508.2959</v>
       </c>
       <c r="L33" s="1">
-        <v>13.7824</v>
+        <v>13.7852</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3877</v>
@@ -12722,10 +12725,10 @@
         <v>432344.2552</v>
       </c>
       <c r="K34" s="1">
-        <v>319618.7009</v>
+        <v>319679.2846</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9526</v>
+        <v>13.9552</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6367</v>
@@ -12775,10 +12778,10 @@
         <v>423226.0489</v>
       </c>
       <c r="K35" s="1">
-        <v>356668.7329</v>
+        <v>356729.3167</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0918</v>
+        <v>14.0942</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.0061</v>
@@ -12828,10 +12831,10 @@
         <v>388246.1787</v>
       </c>
       <c r="K36" s="1">
-        <v>389657.6294</v>
+        <v>389718.2132</v>
       </c>
       <c r="L36" s="1">
-        <v>14.1386</v>
+        <v>14.1408</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.835</v>
@@ -12881,10 +12884,10 @@
         <v>435855.3464</v>
       </c>
       <c r="K37" s="1">
-        <v>430174.8805</v>
+        <v>430235.4642</v>
       </c>
       <c r="L37" s="1">
-        <v>14.0265</v>
+        <v>14.0284</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.4216</v>
@@ -12934,10 +12937,10 @@
         <v>464092.7898</v>
       </c>
       <c r="K38" s="1">
-        <v>437519.5784</v>
+        <v>437580.1622</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0237</v>
+        <v>14.0256</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.2404</v>
@@ -12987,10 +12990,10 @@
         <v>437637.0167</v>
       </c>
       <c r="K39" s="1">
-        <v>433544.5991</v>
+        <v>433621.0547</v>
       </c>
       <c r="L39" s="1">
-        <v>14.0199</v>
+        <v>14.0224</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.382</v>
@@ -13040,10 +13043,10 @@
         <v>429601.9737</v>
       </c>
       <c r="K40" s="1">
-        <v>472560.9175</v>
+        <v>472637.3731</v>
       </c>
       <c r="L40" s="1">
-        <v>13.9545</v>
+        <v>13.9568</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>11.9583</v>
@@ -13093,10 +13096,10 @@
         <v>424479.4561</v>
       </c>
       <c r="K41" s="1">
-        <v>493693.3955</v>
+        <v>493769.8511</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8804</v>
+        <v>13.8825</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.2036</v>
@@ -13146,10 +13149,10 @@
         <v>443350.7608</v>
       </c>
       <c r="K42" s="1">
-        <v>503693.3955</v>
+        <v>503769.8511</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8369</v>
+        <v>13.839</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.9136</v>
@@ -13199,10 +13202,10 @@
         <v>492789.7422</v>
       </c>
       <c r="K43" s="1">
-        <v>513693.3955</v>
+        <v>513769.8511</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8015</v>
+        <v>13.8036</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.4338</v>
@@ -13252,10 +13255,10 @@
         <v>522945.2759</v>
       </c>
       <c r="K44" s="1">
-        <v>536798.2197</v>
+        <v>536874.6752000001</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7621</v>
+        <v>13.764</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.9657</v>
@@ -13305,10 +13308,10 @@
         <v>514338.7435</v>
       </c>
       <c r="K45" s="1">
-        <v>546798.2197</v>
+        <v>546874.6752000001</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7564</v>
+        <v>13.7583</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3568</v>
@@ -13358,10 +13361,10 @@
         <v>550845.2084</v>
       </c>
       <c r="K46" s="1">
-        <v>556798.2197</v>
+        <v>556874.6752000001</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7419</v>
+        <v>13.7438</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.2487</v>
@@ -13411,10 +13414,10 @@
         <v>556223.2633</v>
       </c>
       <c r="K47" s="1">
-        <v>577530.3377</v>
+        <v>577606.7933</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7287</v>
+        <v>13.7305</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3991</v>
@@ -13464,10 +13467,10 @@
         <v>572610.7204</v>
       </c>
       <c r="K48" s="1">
-        <v>587530.3377</v>
+        <v>587606.7933</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7207</v>
+        <v>13.7225</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.5985</v>
@@ -13517,10 +13520,10 @@
         <v>606655.7678</v>
       </c>
       <c r="K49" s="1">
-        <v>597530.3377</v>
+        <v>597606.7933</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7157</v>
+        <v>13.7174</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.6955</v>
@@ -13570,10 +13573,10 @@
         <v>620938.4717</v>
       </c>
       <c r="K50" s="1">
-        <v>618600.2058999999</v>
+        <v>618676.6615</v>
       </c>
       <c r="L50" s="1">
-        <v>13.7126</v>
+        <v>13.7143</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3398</v>
@@ -13623,10 +13626,10 @@
         <v>614571.3206</v>
       </c>
       <c r="K51" s="1">
-        <v>630402.7737</v>
+        <v>630479.2293</v>
       </c>
       <c r="L51" s="1">
-        <v>13.7128</v>
+        <v>13.7145</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.8469</v>
@@ -13676,10 +13679,10 @@
         <v>613858.4545</v>
       </c>
       <c r="K52" s="1">
-        <v>642945.7755</v>
+        <v>643022.2311</v>
       </c>
       <c r="L52" s="1">
-        <v>13.7059</v>
+        <v>13.7075</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.129</v>
@@ -13729,10 +13732,10 @@
         <v>637464.3233</v>
       </c>
       <c r="K53" s="1">
-        <v>665358.1848</v>
+        <v>665434.6404</v>
       </c>
       <c r="L53" s="1">
-        <v>13.676</v>
+        <v>13.6776</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.716</v>
@@ -13782,10 +13785,10 @@
         <v>627061.8515</v>
       </c>
       <c r="K54" s="1">
-        <v>675358.1848</v>
+        <v>675434.6404</v>
       </c>
       <c r="L54" s="1">
-        <v>13.668</v>
+        <v>13.6696</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.4613</v>
@@ -13835,10 +13838,10 @@
         <v>637603.0998</v>
       </c>
       <c r="K55" s="1">
-        <v>685358.1848</v>
+        <v>685434.6404</v>
       </c>
       <c r="L55" s="1">
-        <v>13.6535</v>
+        <v>13.6551</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.6545</v>
@@ -13888,10 +13891,10 @@
         <v>657548.086</v>
       </c>
       <c r="K56" s="1">
-        <v>708699.2955</v>
+        <v>708775.7511</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6116</v>
+        <v>13.6131</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.2345</v>
@@ -13941,10 +13944,10 @@
         <v>645351.5598</v>
       </c>
       <c r="K57" s="1">
-        <v>718699.2955</v>
+        <v>718775.7511</v>
       </c>
       <c r="L57" s="1">
-        <v>13.5977</v>
+        <v>13.5992</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.1636</v>
@@ -13994,10 +13997,10 @@
         <v>665787.7883</v>
       </c>
       <c r="K58" s="1">
-        <v>728699.2955</v>
+        <v>728775.7511</v>
       </c>
       <c r="L58" s="1">
-        <v>13.5774</v>
+        <v>13.5788</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.8145</v>
@@ -14047,10 +14050,10 @@
         <v>656298.3666</v>
       </c>
       <c r="K59" s="1">
-        <v>752969.9689</v>
+        <v>753046.4244</v>
       </c>
       <c r="L59" s="1">
-        <v>13.5277</v>
+        <v>13.5291</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.2352</v>
@@ -14100,10 +14103,10 @@
         <v>633586.553</v>
       </c>
       <c r="K60" s="1">
-        <v>762969.9689</v>
+        <v>763046.4244</v>
       </c>
       <c r="L60" s="1">
-        <v>13.5024</v>
+        <v>13.5038</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.8241</v>
@@ -14153,10 +14156,10 @@
         <v>635254.3053</v>
       </c>
       <c r="K61" s="1">
-        <v>772969.9689</v>
+        <v>773046.4244</v>
       </c>
       <c r="L61" s="1">
-        <v>13.4677</v>
+        <v>13.469</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.2543</v>
@@ -14206,10 +14209,10 @@
         <v>670798.3554999999</v>
       </c>
       <c r="K62" s="1">
-        <v>798226.6304</v>
+        <v>798303.086</v>
       </c>
       <c r="L62" s="1">
-        <v>13.3654</v>
+        <v>13.3667</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.701</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-29</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8109</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-28</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.9322</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-27</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.5846</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-26</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.2867</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-25</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.0645</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-24</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8083</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-23</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.5636</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-22</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.1788</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-21</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.5668</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.962</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-19</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2659</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.4103</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.3976</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.9013</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.3527</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8804</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-13</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6268</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-12</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.3636</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-11</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.8711</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1252</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.1934</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-8</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1176</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-7</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.3311</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3637</v>
@@ -15610,10 +15613,10 @@
         <v>307182.6173</v>
       </c>
       <c r="K26" s="1">
-        <v>252468.2481</v>
+        <v>252476.5672</v>
       </c>
       <c r="L26" s="1">
-        <v>13.4907</v>
+        <v>13.4912</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6447</v>
@@ -15663,10 +15666,10 @@
         <v>303057.9266</v>
       </c>
       <c r="K27" s="1">
-        <v>266208.082</v>
+        <v>266216.4011</v>
       </c>
       <c r="L27" s="1">
-        <v>13.5774</v>
+        <v>13.5778</v>
       </c>
       <c r="M27" s="1">
         <v>1</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.486</v>
@@ -15716,10 +15719,10 @@
         <v>348576.1082</v>
       </c>
       <c r="K28" s="1">
-        <v>292705.5735</v>
+        <v>292713.8926</v>
       </c>
       <c r="L28" s="1">
-        <v>13.6699</v>
+        <v>13.6702</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-3</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.1958</v>
@@ -15769,10 +15772,10 @@
         <v>373695.9808</v>
       </c>
       <c r="K29" s="1">
-        <v>291638.0562</v>
+        <v>291650.6407</v>
       </c>
       <c r="L29" s="1">
-        <v>13.6639</v>
+        <v>13.6645</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-2</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.4264</v>
@@ -15822,10 +15825,10 @@
         <v>388606.8512</v>
       </c>
       <c r="K30" s="1">
-        <v>291465.4964</v>
+        <v>291478.7699</v>
       </c>
       <c r="L30" s="1">
-        <v>13.6626</v>
+        <v>13.6632</v>
       </c>
       <c r="M30" s="1">
         <v>0.75</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>17.107</v>
@@ -15875,10 +15878,10 @@
         <v>427880.0935</v>
       </c>
       <c r="K31" s="1">
-        <v>301767.9717</v>
+        <v>301781.2453</v>
       </c>
       <c r="L31" s="1">
-        <v>13.7423</v>
+        <v>13.7429</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.8894</v>
@@ -15928,10 +15931,10 @@
         <v>433102.479</v>
       </c>
       <c r="K32" s="1">
-        <v>302255.1732</v>
+        <v>302268.4468</v>
       </c>
       <c r="L32" s="1">
-        <v>13.7467</v>
+        <v>13.7473</v>
       </c>
       <c r="M32" s="1">
         <v>1</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.4004</v>
@@ -15981,10 +15984,10 @@
         <v>451488.6509</v>
       </c>
       <c r="K33" s="1">
-        <v>322743.4838</v>
+        <v>322756.7574</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9125</v>
+        <v>13.9131</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3877</v>
@@ -16034,10 +16037,10 @@
         <v>436254.4905</v>
       </c>
       <c r="K34" s="1">
-        <v>350038.5379</v>
+        <v>350051.8114</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0809</v>
+        <v>14.0815</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6367</v>
@@ -16087,10 +16090,10 @@
         <v>425445.0979</v>
       </c>
       <c r="K35" s="1">
-        <v>391432.1923</v>
+        <v>391445.4658</v>
       </c>
       <c r="L35" s="1">
-        <v>14.2113</v>
+        <v>14.2118</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.0061</v>
@@ -16140,10 +16143,10 @@
         <v>386817.919</v>
       </c>
       <c r="K36" s="1">
-        <v>424535.1835</v>
+        <v>424548.4571</v>
       </c>
       <c r="L36" s="1">
-        <v>14.2457</v>
+        <v>14.2462</v>
       </c>
       <c r="M36" s="1">
         <v>0.5</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.835</v>
@@ -16193,10 +16196,10 @@
         <v>435474.313</v>
       </c>
       <c r="K37" s="1">
-        <v>434535.1835</v>
+        <v>434548.4571</v>
       </c>
       <c r="L37" s="1">
-        <v>14.2153</v>
+        <v>14.2157</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.4216</v>
@@ -16246,10 +16249,10 @@
         <v>464267.1748</v>
       </c>
       <c r="K38" s="1">
-        <v>457945.5628</v>
+        <v>457958.8364</v>
       </c>
       <c r="L38" s="1">
-        <v>14.1968</v>
+        <v>14.1972</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.2404</v>
@@ -16299,10 +16302,10 @@
         <v>435383.7612</v>
       </c>
       <c r="K39" s="1">
-        <v>467945.5628</v>
+        <v>467958.8364</v>
       </c>
       <c r="L39" s="1">
-        <v>14.2022</v>
+        <v>14.2026</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.382</v>
@@ -16352,10 +16355,10 @@
         <v>428332.3401</v>
       </c>
       <c r="K40" s="1">
-        <v>477945.5628</v>
+        <v>477958.8364</v>
       </c>
       <c r="L40" s="1">
-        <v>14.1812</v>
+        <v>14.1816</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>11.9583</v>
@@ -16405,10 +16408,10 @@
         <v>423250.4476</v>
       </c>
       <c r="K41" s="1">
-        <v>499807.1747</v>
+        <v>499820.4483</v>
       </c>
       <c r="L41" s="1">
-        <v>14.0931</v>
+        <v>14.0934</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.2036</v>
@@ -16458,10 +16461,10 @@
         <v>442096.5428</v>
       </c>
       <c r="K42" s="1">
-        <v>509807.1747</v>
+        <v>509820.4483</v>
       </c>
       <c r="L42" s="1">
-        <v>14.0445</v>
+        <v>14.0449</v>
       </c>
       <c r="M42" s="1">
         <v>0.4</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.9136</v>
@@ -16511,10 +16514,10 @@
         <v>491425.4794</v>
       </c>
       <c r="K43" s="1">
-        <v>519807.1747</v>
+        <v>519820.4483</v>
       </c>
       <c r="L43" s="1">
-        <v>14.0045</v>
+        <v>14.0049</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.4338</v>
@@ -16564,10 +16567,10 @@
         <v>521526.2169</v>
       </c>
       <c r="K44" s="1">
-        <v>542874.9259</v>
+        <v>542888.1995</v>
       </c>
       <c r="L44" s="1">
-        <v>13.9557</v>
+        <v>13.9561</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.9657</v>
@@ -16617,10 +16620,10 @@
         <v>512969.1249</v>
       </c>
       <c r="K45" s="1">
-        <v>552874.9259</v>
+        <v>552888.1995</v>
       </c>
       <c r="L45" s="1">
-        <v>13.9464</v>
+        <v>13.9468</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3568</v>
@@ -16670,10 +16673,10 @@
         <v>549405.7</v>
       </c>
       <c r="K46" s="1">
-        <v>562874.9259</v>
+        <v>562888.1995</v>
       </c>
       <c r="L46" s="1">
-        <v>13.9283</v>
+        <v>13.9286</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.2487</v>
@@ -16723,10 +16726,10 @@
         <v>554795.5203</v>
       </c>
       <c r="K47" s="1">
-        <v>583578.4656999999</v>
+        <v>583591.7392</v>
       </c>
       <c r="L47" s="1">
-        <v>13.9082</v>
+        <v>13.9085</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3991</v>
@@ -16776,10 +16779,10 @@
         <v>571166.7694</v>
       </c>
       <c r="K48" s="1">
-        <v>593578.4656999999</v>
+        <v>593591.7392</v>
       </c>
       <c r="L48" s="1">
-        <v>13.897</v>
+        <v>13.8973</v>
       </c>
       <c r="M48" s="1">
         <v>0.4</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.5985</v>
@@ -16829,10 +16832,10 @@
         <v>605151.4556</v>
       </c>
       <c r="K49" s="1">
-        <v>603578.4656999999</v>
+        <v>603591.7392</v>
       </c>
       <c r="L49" s="1">
-        <v>13.8889</v>
+        <v>13.8892</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.6955</v>
@@ -16882,10 +16885,10 @@
         <v>619437.1085</v>
       </c>
       <c r="K50" s="1">
-        <v>628955.0304</v>
+        <v>628968.304</v>
       </c>
       <c r="L50" s="1">
-        <v>13.8781</v>
+        <v>13.8784</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.3398</v>
@@ -16935,10 +16938,10 @@
         <v>613049.9142999999</v>
       </c>
       <c r="K51" s="1">
-        <v>638955.0304</v>
+        <v>638968.304</v>
       </c>
       <c r="L51" s="1">
-        <v>13.8757</v>
+        <v>13.8759</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.8469</v>
@@ -16988,10 +16991,10 @@
         <v>612423.7648</v>
       </c>
       <c r="K52" s="1">
-        <v>648955.0304</v>
+        <v>648968.304</v>
       </c>
       <c r="L52" s="1">
-        <v>13.8675</v>
+        <v>13.8678</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.129</v>
@@ -17041,10 +17044,10 @@
         <v>635998.0492</v>
       </c>
       <c r="K53" s="1">
-        <v>671388.1585</v>
+        <v>671401.432</v>
       </c>
       <c r="L53" s="1">
-        <v>13.8318</v>
+        <v>13.8321</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.716</v>
@@ -17094,10 +17097,10 @@
         <v>625641.694</v>
       </c>
       <c r="K54" s="1">
-        <v>681388.1585</v>
+        <v>681401.432</v>
       </c>
       <c r="L54" s="1">
-        <v>13.8214</v>
+        <v>13.8216</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.4613</v>
@@ -17147,10 +17150,10 @@
         <v>636181.1742</v>
       </c>
       <c r="K55" s="1">
-        <v>691388.1585</v>
+        <v>691401.432</v>
       </c>
       <c r="L55" s="1">
-        <v>13.8044</v>
+        <v>13.8047</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.6545</v>
@@ -17200,10 +17203,10 @@
         <v>656104.2391</v>
       </c>
       <c r="K56" s="1">
-        <v>714699.0545</v>
+        <v>714712.3281</v>
       </c>
       <c r="L56" s="1">
-        <v>13.7571</v>
+        <v>13.7573</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12.2345</v>
@@ -17253,10 +17256,10 @@
         <v>643955.6383</v>
       </c>
       <c r="K57" s="1">
-        <v>724699.0545</v>
+        <v>724712.3281</v>
       </c>
       <c r="L57" s="1">
-        <v>13.741</v>
+        <v>13.7412</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.1636</v>
@@ -17306,10 +17309,10 @@
         <v>664369.0817</v>
       </c>
       <c r="K58" s="1">
-        <v>734699.0545</v>
+        <v>734712.3281</v>
       </c>
       <c r="L58" s="1">
-        <v>13.7184</v>
+        <v>13.7186</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.8145</v>
@@ -17359,10 +17362,10 @@
         <v>654920.4969</v>
       </c>
       <c r="K59" s="1">
-        <v>758938.8598</v>
+        <v>758952.1334</v>
       </c>
       <c r="L59" s="1">
-        <v>13.6636</v>
+        <v>13.6638</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.2352</v>
@@ -17412,10 +17415,10 @@
         <v>632276.251</v>
       </c>
       <c r="K60" s="1">
-        <v>768938.8598</v>
+        <v>768952.1334</v>
       </c>
       <c r="L60" s="1">
-        <v>13.6363</v>
+        <v>13.6365</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.8241</v>
@@ -17465,10 +17468,10 @@
         <v>633960.3986</v>
       </c>
       <c r="K61" s="1">
-        <v>778938.8598</v>
+        <v>778952.1334</v>
       </c>
       <c r="L61" s="1">
-        <v>13.5994</v>
+        <v>13.5996</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>11.2543</v>
@@ -17518,10 +17521,10 @@
         <v>669453.1467</v>
       </c>
       <c r="K62" s="1">
-        <v>804163.9695</v>
+        <v>804177.2431</v>
       </c>
       <c r="L62" s="1">
-        <v>13.4919</v>
+        <v>13.4921</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.3234</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0203</v>
+        <v>13.0247</v>
       </c>
       <c r="E3" s="1">
-        <v>13.1614</v>
+        <v>13.1653</v>
       </c>
       <c r="F3" s="1">
-        <v>13.3654</v>
+        <v>13.3667</v>
       </c>
       <c r="G3" s="1">
-        <v>13.4919</v>
+        <v>13.4921</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>204177.2431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.843</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9275</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8531</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8403</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8325</v>
       </c>
     </row>
   </sheetData>
